--- a/data_operasi_reaktor/Result_data_v.xlsx
+++ b/data_operasi_reaktor/Result_data_v.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:M155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1965,21 +1965,45 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>06-10-2022</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
+          <t>07-10-2022</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.5789045467767704</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.001994381838710565</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-0.5767657036064893</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.004108594772324324</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.5789045467767729</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.001994381838712884</v>
+      </c>
+      <c r="H36" t="n">
+        <v>-0.576765703606483</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.004108594772329739</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.2887359759436872</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.001579805948847437</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.2878912654156407</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.001780389911881535</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2624,6 +2648,4442 @@
       </c>
       <c r="M51" t="n">
         <v>0.4212716595532012</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>01-03-2023</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.6602647618122757</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.2792495259719421</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-0.5928530297850091</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.1191808316399976</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.6602647618122733</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.2792495259719389</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-0.5928530297850103</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.1191808316399989</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.3816932145496283</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.2802195923506363</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-0.3180512589405198</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.1201120228226259</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>09-03-2023</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.6672519876904006</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.2835278524020405</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-0.8143447146606734</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.4987913506479185</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.6672519876904002</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.2835278524020405</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-0.8143447146606736</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.4987913506479219</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.4058208512782521</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.3183272563454408</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-0.6262428685981822</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.6212260676647637</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>21-03-2023</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.713246902917581</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.3543251835906051</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-0.7876985753208341</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.4372023380289449</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.713246902917581</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.3543251835906065</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-0.7876985753208295</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.437202338028945</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.4188853638437851</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.3394354900061046</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-0.5283739569960865</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.4716977189167357</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>04-04-2023</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.9573755368535692</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.56644892356409</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-1.012561844390176</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.5970862357730472</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.9573755368535727</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.5664489235641071</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-1.012561844390175</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.5970862357730354</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.7548739236489485</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.6636286964825857</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-0.8168574296304296</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.7061313768538628</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>11-04-2023</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.592842635865429</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.2042509324240011</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-0.5761044965991037</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.224178379379498</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.5928426358654236</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.2042509324240021</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-0.5761044965991067</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.2241783793794971</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.3229857069753212</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.2005698735160983</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-0.3240009768412404</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.2042605052822195</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>14-04-2023</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1.073188420017995</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.5737435720668415</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-1.162497987747134</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.6291408103773533</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1.073188420017997</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.5737435720668449</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-1.162497987747134</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.6291408103773597</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.8796018190342275</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.6290273284248196</v>
+      </c>
+      <c r="L57" t="n">
+        <v>-0.9881039293823888</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.7059841265322535</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>04-05-2023</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.6504494372766755</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.2695399819083206</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-0.6853446203699908</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.3350841839549796</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.6504494372766741</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.2695399819083191</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-0.6853446203699893</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.335084183954982</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.3745523406402871</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.2865031906843321</v>
+      </c>
+      <c r="L58" t="n">
+        <v>-0.4116346725663604</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.3861300202577691</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>10-05-2023</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.628357930474013</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.2287623075452944</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-0.6446059816024508</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.2703252365412261</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.6283579304740182</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.2287623075452956</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-0.6446059816024559</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.2703252365412249</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.3536043768404173</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.2580434181068582</v>
+      </c>
+      <c r="L59" t="n">
+        <v>-0.3710090566812569</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.296381877447686</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>15-05-2023</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.6014597798915944</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.1495797631964758</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-0.6126023637505872</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.2025886469293437</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.6014597798915992</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.1495797631964769</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-0.6126023637505846</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.2025886469293239</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.3172416510502511</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.1655579088133855</v>
+      </c>
+      <c r="L60" t="n">
+        <v>-0.3333698801681184</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.230585179828804</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>22-05-2023</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.6324117898314757</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.2312748157539685</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-0.6512374160864437</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.2808407649082108</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.6324117898314724</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.2312748157539788</v>
+      </c>
+      <c r="H61" t="n">
+        <v>-0.6512374160864485</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.280840764908213</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.351572881658869</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.2578254449537045</v>
+      </c>
+      <c r="L61" t="n">
+        <v>-0.3697343472376928</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.3181994490313047</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>29-05-2023</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.9325748076237343</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.5396717774176307</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-0.9294019820308792</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.5603421369018546</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.9325748076237346</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.5396717774176301</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-0.9294019820308808</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.5603421369018569</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.6555338940806243</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.5939448951877017</v>
+      </c>
+      <c r="L62" t="n">
+        <v>-0.6432339513959071</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.6086566566567381</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>05-06-2023</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.9682347245878564</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.5361833681302466</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-1.050398369212471</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.5797411905449306</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.9682347245878588</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.5361833681302531</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-1.050398369212469</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.5797411905449299</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.744777660271536</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.5915593976986245</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-0.8374921646180313</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.6537226062104365</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>27-06-2023</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.7009626899180664</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.3254142013184261</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-0.7098125450302856</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.3850816624607624</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.700962689918067</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.3254142013184165</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-0.7098125450302807</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.3850816624607677</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.4242106210055928</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.3316905278264435</v>
+      </c>
+      <c r="L64" t="n">
+        <v>-0.4504756155189453</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.4426097664549942</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>06-07-2023</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.7671219122678248</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.4001763201074692</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-0.7808935379939477</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.4516049753301253</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.7671219122678243</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.4001763201074686</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-0.7808935379939526</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.4516049753301306</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.4822320280416938</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.3986786789027366</v>
+      </c>
+      <c r="L65" t="n">
+        <v>-0.5244307149718606</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.5019271773598064</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>11-07-2023</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.9044990036469092</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.4861504777321338</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-1.102423026717932</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.5929483912800234</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.9044990036469063</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.4861504777321162</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-1.102423026717935</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.5929483912800325</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.6438743538929386</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.4801153672023522</v>
+      </c>
+      <c r="L66" t="n">
+        <v>-0.9091635585848302</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.6598986742211412</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>26-07-2023</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.6203420385503884</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.1736456858312469</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-0.6324794768717618</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.2353384317735498</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.6203420385503923</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.1736456858312456</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-0.6324794768717498</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.2353384317735575</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.3397261335741072</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.1639775691653179</v>
+      </c>
+      <c r="L67" t="n">
+        <v>-0.3593700653042381</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.2613887261167552</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>23-08-2023</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.6141820545275221</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.1905738290311615</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-0.7557301334398953</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.44552945099979</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.6141820545275193</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.1905738290311616</v>
+      </c>
+      <c r="H68" t="n">
+        <v>-0.7557301334399007</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.4455294509997796</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.3356520964417045</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.1923554251253638</v>
+      </c>
+      <c r="L68" t="n">
+        <v>-0.5221983806723559</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.5335456547404617</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>04-09-2023</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.6887406065307097</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.3093858815395969</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-0.8162004349170278</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.469892071511119</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.688740606530712</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.3093858815395942</v>
+      </c>
+      <c r="H69" t="n">
+        <v>-0.8162004349170229</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.4698920715111171</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.4318111185824616</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.3318433755090167</v>
+      </c>
+      <c r="L69" t="n">
+        <v>-0.5760853012179166</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.5424126265947498</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>08-09-2023</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.6660917468063611</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.2853433783000242</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-0.735672337677585</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.3906154974436834</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.6660917468063636</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.2853433783000234</v>
+      </c>
+      <c r="H70" t="n">
+        <v>-0.7356723376775823</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.3906154974436806</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.403876083098365</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.2920732438548316</v>
+      </c>
+      <c r="L70" t="n">
+        <v>-0.4629704206131023</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.4317207660526774</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>20-09-2023</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.9021543172986359</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.5126664689613211</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-0.9759691317244802</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.5783415501249705</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.902154317298648</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.5126664689613259</v>
+      </c>
+      <c r="H71" t="n">
+        <v>-0.9759691317244694</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.5783415501249888</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.6429211406490543</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.5391001868511551</v>
+      </c>
+      <c r="L71" t="n">
+        <v>-0.7606852135425042</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.6670345044255603</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>27-09-2023</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.6641831204887411</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.2858664586982956</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-0.7125977519739459</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.3786302536800201</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.6641831204887397</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.2858664586982873</v>
+      </c>
+      <c r="H72" t="n">
+        <v>-0.7125977519739419</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.3786302536800349</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.3900725183896452</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.2941566544427766</v>
+      </c>
+      <c r="L72" t="n">
+        <v>-0.4577125394572862</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.4639404318998472</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>09-10-2023</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.808604338302287</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.4330275247316204</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-0.8935239377048178</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.5392036745844708</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.8086043383022924</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.4330275247316328</v>
+      </c>
+      <c r="H73" t="n">
+        <v>-0.8935239377048215</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.539203674584475</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.5308897032887799</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.4358859712850811</v>
+      </c>
+      <c r="L73" t="n">
+        <v>-0.6526825991062459</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.6218103923718992</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>20-10-2023</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.6491806244518341</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.254113685576922</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-0.6764639881853597</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.324839881936345</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.6491806244518331</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.2541136855768997</v>
+      </c>
+      <c r="H74" t="n">
+        <v>-0.6764639881853586</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.3248398819363362</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.3659225800390991</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.2617926772621066</v>
+      </c>
+      <c r="L74" t="n">
+        <v>-0.4031823976428114</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.3661891852245172</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>27-10-2023</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.6725903910602871</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.3061555087995005</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-0.7064417863337301</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.3751168283981641</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.6725903910602899</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.3061555087995021</v>
+      </c>
+      <c r="H75" t="n">
+        <v>-0.7064417863337258</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.3751168283981625</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.3963675903302457</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.3196618331790176</v>
+      </c>
+      <c r="L75" t="n">
+        <v>-0.4403110534962412</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.4159111199246656</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>02-11-2023</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.9115961650504013</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.4870050680192383</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-1.017332743222552</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.5807742586784972</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.9115961650503938</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.4870050680192466</v>
+      </c>
+      <c r="H76" t="n">
+        <v>-1.017332743222549</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.5807742586784956</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.6704238784092751</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.4857286369780087</v>
+      </c>
+      <c r="L76" t="n">
+        <v>-0.8061727906447506</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.6332621768817713</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>10-11-2023</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.6339553545427253</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.2339023393484057</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-0.6730938054089638</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.3269679738883005</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.6339553545427233</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.2339023393483947</v>
+      </c>
+      <c r="H77" t="n">
+        <v>-0.6730938054089657</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.326967973888282</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.3514082178699983</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.2123678479273825</v>
+      </c>
+      <c r="L77" t="n">
+        <v>-0.4053173594331254</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.3853677912905081</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>16-11-2023</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.5864329478865041</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.07465164811294797</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-0.5848855261561843</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.06503633949709624</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.5864329478865035</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.07465164811295273</v>
+      </c>
+      <c r="H78" t="n">
+        <v>-0.5848855261561842</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.06503633949709436</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.2969757975329009</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.04912021573090812</v>
+      </c>
+      <c r="L78" t="n">
+        <v>-0.2956850750467074</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.04492670510725914</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>24-11-2023</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.5797429498978635</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.003586132882245817</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-1.175511368164763</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.6743183209370658</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.5797429498978611</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.003586132882247216</v>
+      </c>
+      <c r="H79" t="n">
+        <v>-1.175511368164762</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.6743183209370655</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.289882865059426</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.0009383620169778039</v>
+      </c>
+      <c r="L79" t="n">
+        <v>-0.9959428357129994</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.7611692935632484</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>01-12-2023</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>1.151283645769406</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.6010762003986403</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-1.192371692121377</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.6386334873695259</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1.151283645769401</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.601076200398646</v>
+      </c>
+      <c r="H80" t="n">
+        <v>-1.192371692121379</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.6386334873695312</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.9796203681871256</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.6952382100816418</v>
+      </c>
+      <c r="L80" t="n">
+        <v>-1.041451309039336</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.7478561838735899</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>14-12-2023</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.6408021873444926</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.2689738634017368</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-0.7621852320904756</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.451960268958637</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.6408021873444958</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.2689738634017355</v>
+      </c>
+      <c r="H81" t="n">
+        <v>-0.7621852320904736</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.4519602689586576</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.3626869028703025</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.2722354221682464</v>
+      </c>
+      <c r="L81" t="n">
+        <v>-0.520358447693042</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.5375856794263197</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>18-12-2023</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.7320235314942449</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.3678934901633509</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-0.7716408095011335</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.4596449405016166</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.7320235314942369</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.3678934901633539</v>
+      </c>
+      <c r="H82" t="n">
+        <v>-0.7716408095011441</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.4596449405016119</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.4551679602664313</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.3794684931107276</v>
+      </c>
+      <c r="L82" t="n">
+        <v>-0.5232846895471883</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.5362992615031609</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>16-01-2024</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.6386120532715822</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.2586708269574383</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-0.6842487545402388</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.3518846785858867</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.6386120532715912</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.2586708269574149</v>
+      </c>
+      <c r="H83" t="n">
+        <v>-0.6842487545402283</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.3518846785858804</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.3665633051053677</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.2726773041247463</v>
+      </c>
+      <c r="L83" t="n">
+        <v>-0.4199797735340554</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.3895611533374387</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>19-01-2024</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.6352409259590801</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.254892761675128</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-0.6558947044120235</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.3043166007867837</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.6352409259590789</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.2548927616751241</v>
+      </c>
+      <c r="H84" t="n">
+        <v>-0.6558947044120236</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.3043166007867988</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.3540830071947881</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.2520881475661828</v>
+      </c>
+      <c r="L84" t="n">
+        <v>-0.3790864160685728</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.3492826339130195</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>24-01-2024</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.6213716786458361</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.2187105991036055</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-0.6422635561709978</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.2941366750870861</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.621371678645842</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.2187105991036172</v>
+      </c>
+      <c r="H85" t="n">
+        <v>-0.6422635561709932</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.2941366750870656</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.3522977332024283</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.2385757494234159</v>
+      </c>
+      <c r="L85" t="n">
+        <v>-0.3765212764389969</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.3550133755518226</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>01-02-2024</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.7154890332238431</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.3004493053394527</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-0.7353118735788856</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.3289684177754518</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.7154890332238442</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.3004493053394467</v>
+      </c>
+      <c r="H86" t="n">
+        <v>-0.7353118735788818</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.3289684177754546</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.3583206102043528</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.1479453238359225</v>
+      </c>
+      <c r="L86" t="n">
+        <v>-0.3801911695450628</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.2287584627168065</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>13-02-2024</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.640421253315514</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.2410969109937341</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-0.6803516713538796</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.3462298914654951</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.6404212533155175</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.2410969109937228</v>
+      </c>
+      <c r="H87" t="n">
+        <v>-0.6803516713538841</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.3462298914654858</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.361323430655307</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.2306909554170732</v>
+      </c>
+      <c r="L87" t="n">
+        <v>-0.4134976108581982</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.4001579967687635</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>05-03-2024</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.6811177956987974</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.3217243489969347</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-0.7173565592783782</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.3984065403742595</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.6811177956987999</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.3217243489969395</v>
+      </c>
+      <c r="H88" t="n">
+        <v>-0.7173565592783736</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.3984065403742578</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.409409733075038</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.3375642630841751</v>
+      </c>
+      <c r="L88" t="n">
+        <v>-0.4613498916862216</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.4560545817371997</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>14-03-2024</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.5978983653402884</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.1100829866577339</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-0.6911006676924477</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.352447200242406</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.5978983653402821</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.110082986657732</v>
+      </c>
+      <c r="H89" t="n">
+        <v>-0.6911006676924534</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.352447200242409</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.3425559921805601</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.1236674797998833</v>
+      </c>
+      <c r="L89" t="n">
+        <v>-0.4176517408864748</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.3846359528623288</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>22-03-2024</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.6495956264286906</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.2533133048992866</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-0.727626804733561</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.3895002714753154</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.6495956264286872</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.2533133048992399</v>
+      </c>
+      <c r="H90" t="n">
+        <v>-0.7276268047335461</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.389500271475317</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.3856607903112058</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.2693764089101301</v>
+      </c>
+      <c r="L90" t="n">
+        <v>-0.4671804751613982</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.4322915948889904</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>02-04-2024</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.6746683864282452</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.2982444317826011</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-0.775116484640246</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.4477925686091455</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.6746683864282496</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.298244431782601</v>
+      </c>
+      <c r="H91" t="n">
+        <v>-0.7751164846402496</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.447792568609145</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.4041332882858241</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.2988540364286944</v>
+      </c>
+      <c r="L91" t="n">
+        <v>-0.5291126039625502</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.5310741893231644</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>05-04-2024</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.6313355823556664</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.2292650339490336</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-0.6660482257091831</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.3230893000309568</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.6313355823556789</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.2292650339490322</v>
+      </c>
+      <c r="H92" t="n">
+        <v>-0.6660482257091694</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.3230893000309711</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.352810717204865</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.2492484034642803</v>
+      </c>
+      <c r="L92" t="n">
+        <v>-0.3986602176666491</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.383886859246485</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>24-04-2024</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.6211889389042535</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.2175448609779996</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-0.6465638083983043</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.2846055709697092</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.6211889389042624</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.2175448609780049</v>
+      </c>
+      <c r="H93" t="n">
+        <v>-0.646563808398292</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.2846055709697092</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.3433469824503265</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.2303004182878909</v>
+      </c>
+      <c r="L93" t="n">
+        <v>-0.3727290694911944</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.3178363500013852</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>06-05-2024</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.624120356089402</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.2210688122982275</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-0.6504169268825285</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.2873003003255819</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.6241203560894145</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.2210688122982555</v>
+      </c>
+      <c r="H94" t="n">
+        <v>-0.6504169268825238</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.2873003003255743</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.3427106620201157</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.2328046002417323</v>
+      </c>
+      <c r="L94" t="n">
+        <v>-0.3819040628926295</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.345240993755439</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>13-05-2024</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0.6313073356085211</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.2354578595647869</v>
+      </c>
+      <c r="D95" t="n">
+        <v>-0.6639273026261332</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.3142992625816674</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.6313073356085225</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.2354578595647885</v>
+      </c>
+      <c r="H95" t="n">
+        <v>-0.6639273026261303</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.3142992625816735</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.3505289162859064</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.2423370872615032</v>
+      </c>
+      <c r="L95" t="n">
+        <v>-0.3910330791927927</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.3641098904328083</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>20-05-2024</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0.9312706079809439</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.5100741608898042</v>
+      </c>
+      <c r="D96" t="n">
+        <v>-1.019174819382822</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.5915816119332559</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.9312706079809391</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.5100741608898024</v>
+      </c>
+      <c r="H96" t="n">
+        <v>-1.019174819382822</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.5915816119332622</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.7033283211777009</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.5556984711109497</v>
+      </c>
+      <c r="L96" t="n">
+        <v>-0.8319395742624994</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.6802975720161721</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>27-05-2024</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>1.253631821282511</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.5937891391514564</v>
+      </c>
+      <c r="D97" t="n">
+        <v>-1.345787101546946</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.6093221964699097</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1.253631821282509</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.5937891391514619</v>
+      </c>
+      <c r="H97" t="n">
+        <v>-1.34578710154695</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.6093221964699157</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1.079317715831557</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.6695281781808738</v>
+      </c>
+      <c r="L97" t="n">
+        <v>-1.195893285293509</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.7181952527697665</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>03-06-2024</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0.6441941224754912</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.2475550764132796</v>
+      </c>
+      <c r="D98" t="n">
+        <v>-0.6753036432198715</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.3290314032801052</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.6441941224754899</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.2475550764132787</v>
+      </c>
+      <c r="H98" t="n">
+        <v>-0.6753036432198746</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.3290314032800964</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.3673923682558224</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.2462754432991152</v>
+      </c>
+      <c r="L98" t="n">
+        <v>-0.4054571485172686</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.3779303015573443</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>10-06-2024</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>0.6779103713601919</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.3129706010754813</v>
+      </c>
+      <c r="D99" t="n">
+        <v>-0.7440028537314044</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.4311505523214577</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.6779103713601932</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.3129706010754781</v>
+      </c>
+      <c r="H99" t="n">
+        <v>-0.7440028537314006</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.4311505523214586</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.3964996512581604</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.3086427710161834</v>
+      </c>
+      <c r="L99" t="n">
+        <v>-0.4996784413882505</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.4943043126121082</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>14-06-2024</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0.5758514685086394</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.08910162902885775</v>
+      </c>
+      <c r="D100" t="n">
+        <v>-0.6687767148700424</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.3390304665858296</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.5758514685086433</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.0891016290288551</v>
+      </c>
+      <c r="H100" t="n">
+        <v>-0.6687767148700481</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.3390304665858339</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.2954473912118808</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.06422635905710215</v>
+      </c>
+      <c r="L100" t="n">
+        <v>-0.4011333592806872</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.3934671819282344</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>19-06-2024</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>1.183382229158273</v>
+      </c>
+      <c r="C101" t="n">
+        <v>3.439287849606429</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-1.432393765238552</v>
+      </c>
+      <c r="E101" t="n">
+        <v>3.776054914556189</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1.183382229158259</v>
+      </c>
+      <c r="G101" t="n">
+        <v>3.439287849606296</v>
+      </c>
+      <c r="H101" t="n">
+        <v>-1.432393765238565</v>
+      </c>
+      <c r="I101" t="n">
+        <v>3.776054914556306</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.6129143301260798</v>
+      </c>
+      <c r="K101" t="n">
+        <v>1.504494836937187</v>
+      </c>
+      <c r="L101" t="n">
+        <v>-0.8430467101007436</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1.677177905141144</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>03-07-2024</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0.7004011128140242</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.320126696731984</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-0.7397372134893094</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.3904112257323095</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.7004011128140186</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.3201266967319822</v>
+      </c>
+      <c r="H102" t="n">
+        <v>-0.7397372134893097</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.3904112257323091</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.4181749750608605</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.3176795275654358</v>
+      </c>
+      <c r="L102" t="n">
+        <v>-0.4918195957102748</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0.4601996942282593</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>04-07-2024</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0.6903109229663338</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.3137165895489915</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-0.701639874966313</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.3590756682214342</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.6903109229663428</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.3137165895489952</v>
+      </c>
+      <c r="H103" t="n">
+        <v>-0.7016398749663084</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.3590756682214305</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.4067462400635799</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.3084195237591617</v>
+      </c>
+      <c r="L103" t="n">
+        <v>-0.4320894153034637</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0.4017475800630568</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>25-07-2024</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0.9129546280426492</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.5089506194120461</v>
+      </c>
+      <c r="D104" t="n">
+        <v>-1.077828155519473</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.5820189113308006</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.912954628042652</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.508950619412055</v>
+      </c>
+      <c r="H104" t="n">
+        <v>-1.077828155519474</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.5820189113308083</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.6672532201863745</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.546929105742019</v>
+      </c>
+      <c r="L104" t="n">
+        <v>-0.8291264429911956</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0.6391144051537029</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>01-08-2024</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>0.7389668379192046</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.3541310602545888</v>
+      </c>
+      <c r="D105" t="n">
+        <v>-0.7355400079627721</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.369235241616775</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.7389668379191989</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.3541310602545857</v>
+      </c>
+      <c r="H105" t="n">
+        <v>-0.735540007962775</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.3692352416167762</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.4670453995900279</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.3501437088324392</v>
+      </c>
+      <c r="L105" t="n">
+        <v>-0.486148848828048</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0.4090556725960613</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>12-08-2024</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>0.7088256424777837</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.3442603382151384</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-0.7688278995998522</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.4314632031542782</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.7088256424777858</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.3442603382151465</v>
+      </c>
+      <c r="H106" t="n">
+        <v>-0.7688278995998544</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.431463203154283</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.4515334908617866</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.3711762450678084</v>
+      </c>
+      <c r="L106" t="n">
+        <v>-0.513668920128468</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0.4789287746398041</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>21-08-2024</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>0.614906429282321</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.171996945477423</v>
+      </c>
+      <c r="D107" t="n">
+        <v>-0.6308118681757265</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.2386394720519701</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.6149064292823218</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.1719969454774224</v>
+      </c>
+      <c r="H107" t="n">
+        <v>-0.6308118681757233</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.2386394720519752</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.3295999242227862</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.1833758046025024</v>
+      </c>
+      <c r="L107" t="n">
+        <v>-0.3492007360063109</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0.2549670048182556</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>05-09-2024</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0.5905323551328113</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.1002120495156417</v>
+      </c>
+      <c r="D108" t="n">
+        <v>-0.5957370384142419</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.1366767464543456</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.5905323551328131</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.100212049515643</v>
+      </c>
+      <c r="H108" t="n">
+        <v>-0.5957370384142451</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.1366767464543246</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.3019928245169519</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.1144999248938002</v>
+      </c>
+      <c r="L108" t="n">
+        <v>-0.3081879819380937</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0.1611459016101759</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>12-09-2024</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>1.332151940781068</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.5599772747582887</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-1.46642970444362</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.5793756008951294</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1.332151940781068</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.559977274758289</v>
+      </c>
+      <c r="H109" t="n">
+        <v>-1.466429704443619</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.5793756008951325</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1.122262792332255</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.6455486206098158</v>
+      </c>
+      <c r="L109" t="n">
+        <v>-1.363725801447306</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0.6692875370295618</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>19-09-2024</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0.7755533898905661</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.5466547583337548</v>
+      </c>
+      <c r="D110" t="n">
+        <v>-0.861555447824545</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.6254031533934367</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.7755533898905579</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.5466547583337793</v>
+      </c>
+      <c r="H110" t="n">
+        <v>-0.861555447824552</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.6254031533934516</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.573276785860288</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.5041895576996206</v>
+      </c>
+      <c r="L110" t="n">
+        <v>-0.6653279862108842</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0.614616693717248</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>25-09-2024</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>03-10-2024</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>0.6297466505607535</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.1952121269199854</v>
+      </c>
+      <c r="D112" t="n">
+        <v>-0.6560813169859098</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.3065862046659389</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.6297466505607568</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.1952121269199983</v>
+      </c>
+      <c r="H112" t="n">
+        <v>-0.6560813169859103</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.3065862046659358</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.3454605696102322</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.1726867152653839</v>
+      </c>
+      <c r="L112" t="n">
+        <v>-0.392274249445797</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0.3437208346815899</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>08-10-2024</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>0.6381037326745421</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.2293658866925289</v>
+      </c>
+      <c r="D113" t="n">
+        <v>-0.6678952067446898</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.3167102547097299</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.638103732674539</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.2293658866925221</v>
+      </c>
+      <c r="H113" t="n">
+        <v>-0.6678952067446928</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.3167102547097407</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.3604998382527116</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.2303038028020914</v>
+      </c>
+      <c r="L113" t="n">
+        <v>-0.400387160317098</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0.352237387345507</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>17-10-2024</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0.8100940970776909</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.4407513318155686</v>
+      </c>
+      <c r="D114" t="n">
+        <v>-0.9225534404926868</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.5540732986037967</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.8100940970776841</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.4407513318155602</v>
+      </c>
+      <c r="H114" t="n">
+        <v>-0.9225534404926811</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.5540732986037994</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.5704216938956278</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.4666909457313984</v>
+      </c>
+      <c r="L114" t="n">
+        <v>-0.7034183244401067</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0.6351573980317462</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>23-10-2024</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>0.7327473394477013</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.3893292184266171</v>
+      </c>
+      <c r="D115" t="n">
+        <v>-0.776594684065311</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.4552558426908423</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.7327473394477021</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.3893292184266087</v>
+      </c>
+      <c r="H115" t="n">
+        <v>-0.7765946840653111</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.4552558426908463</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.4567469690846216</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.4013212980324128</v>
+      </c>
+      <c r="L115" t="n">
+        <v>-0.5263096694766172</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0.5365972304268273</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>04-11-2024</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>0.8466056967614891</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.4690643863935517</v>
+      </c>
+      <c r="D116" t="n">
+        <v>-0.9262895141365897</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.5531180234620662</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.846605696761489</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.4690643863935505</v>
+      </c>
+      <c r="H116" t="n">
+        <v>-0.9262895141365934</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.5531180234620751</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.5944179096095253</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.4897871843163557</v>
+      </c>
+      <c r="L116" t="n">
+        <v>-0.6979095314978687</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0.6184595245623241</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>11-11-2024</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>-1.758958710225401</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.2947649703387581</v>
+      </c>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>-1.758958710225396</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.2947649703387897</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>-1.727136046954602</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0.3303258882918614</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>18-11-2024</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>0.6826476122141962</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.3019024484470174</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-0.7311932350626265</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.3828366547338802</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.6826476122141932</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.3019024484470187</v>
+      </c>
+      <c r="H118" t="n">
+        <v>-0.7311932350626248</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.3828366547338818</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.4056740462900491</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.310111257471235</v>
+      </c>
+      <c r="L118" t="n">
+        <v>-0.4691888644676362</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0.4175634681116828</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>25-11-2024</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>0.9792298216489452</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.5568923209184079</v>
+      </c>
+      <c r="D119" t="n">
+        <v>-0.9707419346725559</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.5429510673766648</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.9792298216489462</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.5568923209184236</v>
+      </c>
+      <c r="H119" t="n">
+        <v>-0.9707419346725517</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.5429510673766488</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.7157126792902405</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.6085483635623117</v>
+      </c>
+      <c r="L119" t="n">
+        <v>-0.7170544450972547</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0.5999014403202688</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>10-12-2024</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>0.6103788764135269</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.001230121612674606</v>
+      </c>
+      <c r="D120" t="n">
+        <v>-0.6108741570630015</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.0006093793926361302</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.6103788764135256</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.001230121612674772</v>
+      </c>
+      <c r="H120" t="n">
+        <v>-0.6108741570630027</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.0006093793926374453</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.2874618698669417</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.03113601790644232</v>
+      </c>
+      <c r="L120" t="n">
+        <v>-0.3054834916404014</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0.0001399232412277668</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>23-12-2024</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>0.6093838623420367</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.01269063456723555</v>
+      </c>
+      <c r="D121" t="n">
+        <v>-0.6046941509326191</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.0407980168297523</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.6093838623420376</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.01269063456723614</v>
+      </c>
+      <c r="H121" t="n">
+        <v>-0.6046941509326205</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.040798016829753</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.3021805019490584</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0.01813030238561555</v>
+      </c>
+      <c r="L121" t="n">
+        <v>-0.2983823383494519</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0.03190848200744907</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>13-01-2025</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>0.8059381176017651</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1.728780534888516</v>
+      </c>
+      <c r="D122" t="n">
+        <v>-0.8547201929303431</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1.720115949675641</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.8059381176017595</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1.728780534888499</v>
+      </c>
+      <c r="H122" t="n">
+        <v>-0.8547201929303414</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1.720115949675624</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.4658165670661046</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0.8861153324899743</v>
+      </c>
+      <c r="L122" t="n">
+        <v>-0.5363303950809953</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0.9405581384593381</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>20-01-2025</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>0.8848020801538917</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.4597070858707626</v>
+      </c>
+      <c r="D123" t="n">
+        <v>-0.9921193290490145</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.5517475177221232</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.8848020801538878</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.4597070858707456</v>
+      </c>
+      <c r="H123" t="n">
+        <v>-0.9921193290489962</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0.5517475177221225</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.6214001230869468</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0.4881736552268992</v>
+      </c>
+      <c r="L123" t="n">
+        <v>-0.7528073151718605</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0.6316203387459451</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>30-01-2025</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>0.6804058681321943</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.3087456634426784</v>
+      </c>
+      <c r="D124" t="n">
+        <v>-0.6966879349381878</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.3418152843143567</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.6804058681322036</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.3087456634426755</v>
+      </c>
+      <c r="H124" t="n">
+        <v>-0.6966879349381796</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.3418152843143543</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.3898576922869292</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0.2991872613640463</v>
+      </c>
+      <c r="L124" t="n">
+        <v>-0.413633289422646</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0.3627332610400479</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>04-02-2025</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>0.633292531726965</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.1468366250533648</v>
+      </c>
+      <c r="D125" t="n">
+        <v>-0.6775260658151929</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.2722413647169587</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.6332925317269564</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.1468366250533586</v>
+      </c>
+      <c r="H125" t="n">
+        <v>-0.6775260658152022</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0.2722413647169735</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.3389866184590694</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0.1611071630069716</v>
+      </c>
+      <c r="L125" t="n">
+        <v>-0.3923690695860913</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0.3385445526590071</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>18-02-2025</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>0.7099984826802256</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.2854344826702958</v>
+      </c>
+      <c r="D126" t="n">
+        <v>-0.6336515449266913</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.1494681952034153</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.7099984826802267</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.285434482670303</v>
+      </c>
+      <c r="H126" t="n">
+        <v>-0.633651544926693</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0.1494681952034237</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.4378883218338361</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.3134471270701419</v>
+      </c>
+      <c r="L126" t="n">
+        <v>-0.3372883120686827</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0.1497426886608469</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>28-02-2025</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>0.612528258431285</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.002229099094389693</v>
+      </c>
+      <c r="D127" t="n">
+        <v>-0.8457578481750112</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.4766347736652035</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.6125282584312797</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.002229099094390023</v>
+      </c>
+      <c r="H127" t="n">
+        <v>-0.8457578481750155</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.4766347736652065</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.3164569029970836</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0.0549994332994994</v>
+      </c>
+      <c r="L127" t="n">
+        <v>-0.6057974510278872</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0.5772001053661535</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>05-03-2025</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>1.037787337620113</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.5453320819597997</v>
+      </c>
+      <c r="D128" t="n">
+        <v>-1.109623397513214</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.5939481093694146</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1.037787337620111</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.5453320819597853</v>
+      </c>
+      <c r="H128" t="n">
+        <v>-1.109623397513216</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.5939481093694171</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.7934178350587899</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0.5831471977668837</v>
+      </c>
+      <c r="L128" t="n">
+        <v>-0.919545927795905</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0.6622791328309968</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>11-03-2025</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>0.9430179849235476</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.4900174785365414</v>
+      </c>
+      <c r="D129" t="n">
+        <v>-1.069451907394267</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.5858132973826918</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.9430179849235414</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.4900174785365344</v>
+      </c>
+      <c r="H129" t="n">
+        <v>-1.069451907394265</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0.5858132973826887</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.6812205727028904</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0.5077169352627644</v>
+      </c>
+      <c r="L129" t="n">
+        <v>-0.8501110025989703</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0.6815640802596872</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>20-03-2025</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>0.7188701878024605</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.2970939078485959</v>
+      </c>
+      <c r="D130" t="n">
+        <v>-0.7392432549223069</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.3514166434222655</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.7188701878024519</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.2970939078486032</v>
+      </c>
+      <c r="H130" t="n">
+        <v>-0.7392432549223165</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0.3514166434222454</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.3831338271368275</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0.2366717518964629</v>
+      </c>
+      <c r="L130" t="n">
+        <v>-0.4103992633962615</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0.321680711977689</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>25-03-2025</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>0.9847229192349891</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.5606759786811292</v>
+      </c>
+      <c r="D131" t="n">
+        <v>-0.9893497320501948</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.5873962788008854</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.9847229192349897</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.5606759786811319</v>
+      </c>
+      <c r="H131" t="n">
+        <v>-0.9893497320501928</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0.5873962788008793</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.7454951157037214</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0.6417435825322965</v>
+      </c>
+      <c r="L131" t="n">
+        <v>-0.7554533892873433</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0.6732982181548823</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>08-04-2025</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>0.6994713279194712</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.2558062484684375</v>
+      </c>
+      <c r="D132" t="n">
+        <v>-0.6993317851635232</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.2898576722296504</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.6994713279194731</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.2558062484684386</v>
+      </c>
+      <c r="H132" t="n">
+        <v>-0.6993317851635223</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0.2898576722296513</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.3777557372317887</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0.2433458379999892</v>
+      </c>
+      <c r="L132" t="n">
+        <v>-0.3808662907620315</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0.2731828716403943</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>17-04-2025</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>0.6630900454568565</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.1942950838621284</v>
+      </c>
+      <c r="D133" t="n">
+        <v>-0.6885029834631505</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.2521302795916157</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.6630900454568531</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.1942950838621268</v>
+      </c>
+      <c r="H133" t="n">
+        <v>-0.68850298346315</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0.2521302795915805</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.3305268309215322</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0.1035613650917247</v>
+      </c>
+      <c r="L133" t="n">
+        <v>-0.3687988355434753</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0.233638234108489</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>25-04-2025</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>0.7245582155214609</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.3036304126221628</v>
+      </c>
+      <c r="D134" t="n">
+        <v>-0.7894107850053511</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.4209304011252786</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.7245582155214616</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.3036304126221644</v>
+      </c>
+      <c r="H134" t="n">
+        <v>-0.7894107850053496</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0.4209304011252794</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.4345092102290696</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0.315603039685073</v>
+      </c>
+      <c r="L134" t="n">
+        <v>-0.5271163149245831</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0.4858574687391091</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>02-05-2025</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>0.7141214002820442</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.2764584526012402</v>
+      </c>
+      <c r="D135" t="n">
+        <v>-0.7316355555703846</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.3147371829127231</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.7141214002820447</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.2764584526012499</v>
+      </c>
+      <c r="H135" t="n">
+        <v>-0.7316355555704078</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0.3147371829127176</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.385707513894217</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0.2280861888719945</v>
+      </c>
+      <c r="L135" t="n">
+        <v>-0.3964363393433923</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0.2878312778005992</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>15-05-2025</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>0.6156642269173828</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.04362329731621324</v>
+      </c>
+      <c r="D136" t="n">
+        <v>-0.6930046063980678</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.2928690653105315</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.6156642269173868</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.04362329731621378</v>
+      </c>
+      <c r="H136" t="n">
+        <v>-0.6930046063980714</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0.2928690653105408</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.3108939385580571</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0.04375791316245597</v>
+      </c>
+      <c r="L136" t="n">
+        <v>-0.413755427073708</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0.3561326436456523</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>22-05-2025</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>0.6231855998228517</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.1216618979515147</v>
+      </c>
+      <c r="D137" t="n">
+        <v>-0.7400114834284024</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.3658490713983506</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.623185599822848</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.1216618979515163</v>
+      </c>
+      <c r="H137" t="n">
+        <v>-0.7400114834283927</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0.365849071398358</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.3230002858930364</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0.09856323836574178</v>
+      </c>
+      <c r="L137" t="n">
+        <v>-0.4596076355015403</v>
+      </c>
+      <c r="M137" t="n">
+        <v>0.4298881415827941</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>19-06-2025</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>0.6131209823511805</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.0003480317441927971</v>
+      </c>
+      <c r="D138" t="n">
+        <v>-0.6130138404724484</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.0005202858515283795</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.61312098235118</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.0003480317441934138</v>
+      </c>
+      <c r="H138" t="n">
+        <v>-0.6130138404724491</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0.0005202858515283534</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.3065201608199609</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0.0001106745195395018</v>
+      </c>
+      <c r="L138" t="n">
+        <v>-0.3064531437426032</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0.00019063056232954</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>10-07-2025</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>0.5196067857566061</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.09605793320163533</v>
+      </c>
+      <c r="D139" t="n">
+        <v>-0.603220856342623</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.01684245386801292</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.5196067857566056</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.09605793320163582</v>
+      </c>
+      <c r="H139" t="n">
+        <v>-0.6032208563426216</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0.01684245386801391</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.2787089353790417</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0.02883119368813019</v>
+      </c>
+      <c r="L139" t="n">
+        <v>-0.3005259861233213</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0.009802600264691081</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>15-07-2025</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>0.7176310350554708</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.2800278793995588</v>
+      </c>
+      <c r="D140" t="n">
+        <v>-0.7684011718911603</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.3713322290539824</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.7176310350554627</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.2800278793995581</v>
+      </c>
+      <c r="H140" t="n">
+        <v>-0.7684011718911636</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0.3713322290539871</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.4003919923323532</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0.2615730303436365</v>
+      </c>
+      <c r="L140" t="n">
+        <v>-0.4522445748537152</v>
+      </c>
+      <c r="M140" t="n">
+        <v>0.3997075165730761</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>30-07-2025</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>0.7321915478636529</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.2770882892677248</v>
+      </c>
+      <c r="D141" t="n">
+        <v>-0.7310641251701713</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.291264532171822</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.7321915478636551</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.2770882892677158</v>
+      </c>
+      <c r="H141" t="n">
+        <v>-0.7310641251701734</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0.291264532171813</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.3738693703384948</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0.1608631653591381</v>
+      </c>
+      <c r="L141" t="n">
+        <v>-0.3825762500845449</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0.2164459767995724</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>07-08-2025</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>0.6115424599323689</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.003391061416891091</v>
+      </c>
+      <c r="D142" t="n">
+        <v>-0.6111042910137264</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.005089632190125073</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.6115424599323606</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.00339106141685542</v>
+      </c>
+      <c r="H142" t="n">
+        <v>-0.611104291013723</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0.005089632190124652</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.3057870515699224</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0.001171758494847403</v>
+      </c>
+      <c r="L142" t="n">
+        <v>-0.3044229263511313</v>
+      </c>
+      <c r="M142" t="n">
+        <v>0.01909515330683775</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>21-08-2025</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>0.6534732221703743</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.2207321417825599</v>
+      </c>
+      <c r="D143" t="n">
+        <v>-0.6575642041340611</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.2203018862441773</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.653473222170375</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.2207321417825507</v>
+      </c>
+      <c r="H143" t="n">
+        <v>-0.6575642041340587</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0.2203018862441812</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.3598780555504821</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0.2596848858938392</v>
+      </c>
+      <c r="L143" t="n">
+        <v>-0.3646252998539373</v>
+      </c>
+      <c r="M143" t="n">
+        <v>0.2614309891982152</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>08-09-2025</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>0.5738806985397459</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.08556559014112505</v>
+      </c>
+      <c r="D144" t="n">
+        <v>-0.6072522929497346</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.01112317914472635</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.573880698539745</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.08556559014112462</v>
+      </c>
+      <c r="H144" t="n">
+        <v>-0.6072522929497355</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0.01112317914472674</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.3061538484614292</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0.000220769192025396</v>
+      </c>
+      <c r="L144" t="n">
+        <v>-0.3050615158979385</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0.002683951133501621</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>12-09-2025</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>0.9431080065439424</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.5133183342470347</v>
+      </c>
+      <c r="D145" t="n">
+        <v>-1.028314580555206</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.5763883968955993</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.9431080065439598</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.5133183342470399</v>
+      </c>
+      <c r="H145" t="n">
+        <v>-1.028314580555201</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0.5763883968955936</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.6886280804618243</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0.5713886941310812</v>
+      </c>
+      <c r="L145" t="n">
+        <v>-0.8036314308564719</v>
+      </c>
+      <c r="M145" t="n">
+        <v>0.6714978654574428</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>26-09-2025</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>0.6393676730016745</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.1718012551171903</v>
+      </c>
+      <c r="D146" t="n">
+        <v>-0.7058754324262968</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.322131197467121</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.6393676730016857</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.1718012551171962</v>
+      </c>
+      <c r="H146" t="n">
+        <v>-0.705875432426288</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0.3221311974671184</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.335232685760587</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0.1582138569547572</v>
+      </c>
+      <c r="L146" t="n">
+        <v>-0.4286157405145795</v>
+      </c>
+      <c r="M146" t="n">
+        <v>0.3983557895088491</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>03-10-2025</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>0.6127452514120492</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.0003065591278669834</v>
+      </c>
+      <c r="D147" t="n">
+        <v>-0.6124949469479565</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.000176883532950555</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.6127452514120488</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.0003065591278670737</v>
+      </c>
+      <c r="H147" t="n">
+        <v>-0.6124949469479563</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0.0001768835329513924</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.3063413472426228</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0.0001595496992529076</v>
+      </c>
+      <c r="L147" t="n">
+        <v>-0.3061849548375635</v>
+      </c>
+      <c r="M147" t="n">
+        <v>7.654592176216438e-05</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>13-10-2025</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>0.6710830685083257</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.2458440251338538</v>
+      </c>
+      <c r="D148" t="n">
+        <v>-0.6838216662949952</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.3013895729637903</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.6710830685083297</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.2458440251338444</v>
+      </c>
+      <c r="H148" t="n">
+        <v>-0.6838216662949842</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0.3013895729637517</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.3741815555125747</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0.2394808552335973</v>
+      </c>
+      <c r="L148" t="n">
+        <v>-0.3973772413846333</v>
+      </c>
+      <c r="M148" t="n">
+        <v>0.3239893213254585</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>24-10-2025</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>0.6066590599977789</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.04044320291026744</v>
+      </c>
+      <c r="D149" t="n">
+        <v>-0.6054172276031501</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.04594136597951262</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.6066590599977736</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.04044320291026673</v>
+      </c>
+      <c r="H149" t="n">
+        <v>-0.6054172276031523</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0.04594136597951395</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.3037751186600174</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0.01366404497440523</v>
+      </c>
+      <c r="L149" t="n">
+        <v>-0.300347610350558</v>
+      </c>
+      <c r="M149" t="n">
+        <v>0.02510383630339294</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>04-11-2025</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>0.6677562976921024</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.2219265861631181</v>
+      </c>
+      <c r="D150" t="n">
+        <v>-0.6195367690008244</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.08696843576457228</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.6677562976921008</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.2219265861631423</v>
+      </c>
+      <c r="H150" t="n">
+        <v>-0.6195367690008293</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0.08696843576455857</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.3767061167849881</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0.204726465516614</v>
+      </c>
+      <c r="L150" t="n">
+        <v>-0.3146047817841662</v>
+      </c>
+      <c r="M150" t="n">
+        <v>0.06321553029762397</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>13-11-2025</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>0.7205837361555393</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.3118524780077103</v>
+      </c>
+      <c r="D151" t="n">
+        <v>-0.6782640962808718</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.2396566236862277</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.7205837361555333</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.3118524780077155</v>
+      </c>
+      <c r="H151" t="n">
+        <v>-0.6782640962808802</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0.2396566236862672</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.4447302039280524</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0.3244736269489056</v>
+      </c>
+      <c r="L151" t="n">
+        <v>-0.3639837759592077</v>
+      </c>
+      <c r="M151" t="n">
+        <v>0.1761453477186813</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>26-11-2025</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>1.056590487378298</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.5505604511936805</v>
+      </c>
+      <c r="D152" t="n">
+        <v>-1.147498152493149</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.5911456253178095</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1.056590487378299</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.5505604511936646</v>
+      </c>
+      <c r="H152" t="n">
+        <v>-1.14749815249313</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0.5911456253178237</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.8052383188817263</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0.5915226346079919</v>
+      </c>
+      <c r="L152" t="n">
+        <v>-0.9402397425091287</v>
+      </c>
+      <c r="M152" t="n">
+        <v>0.6812866107928379</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>03-12-2025</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>0.7129561981063193</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.2793357002724461</v>
+      </c>
+      <c r="D153" t="n">
+        <v>-0.7173554322942501</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.3520836207200391</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.712956198106322</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.279335700272464</v>
+      </c>
+      <c r="H153" t="n">
+        <v>-0.7173554322942431</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0.3520836207199933</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.4179217362759031</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0.2934329736431587</v>
+      </c>
+      <c r="L153" t="n">
+        <v>-0.436562036367757</v>
+      </c>
+      <c r="M153" t="n">
+        <v>0.3868401865942289</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>17-12-2025</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>0.6124257893240901</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.0005984756610358048</v>
+      </c>
+      <c r="D154" t="n">
+        <v>-0.9036175986529915</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.5174411142236215</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.6124257893240852</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.0005984756610383404</v>
+      </c>
+      <c r="H154" t="n">
+        <v>-0.9036175986529947</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0.5174411142236227</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.3156206672146069</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0.05290714236133857</v>
+      </c>
+      <c r="L154" t="n">
+        <v>-0.6763413321989321</v>
+      </c>
+      <c r="M154" t="n">
+        <v>0.6303384412241595</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>23-12-2025</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>0.6874539116608515</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.2550666346710163</v>
+      </c>
+      <c r="D155" t="n">
+        <v>-0.7280059515833345</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.356449234667407</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.6874539116608523</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.2550666346710122</v>
+      </c>
+      <c r="H155" t="n">
+        <v>-0.7280059515833317</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0.3564492346674132</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.3923615075953765</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0.2652820377635499</v>
+      </c>
+      <c r="L155" t="n">
+        <v>-0.4421083471981359</v>
+      </c>
+      <c r="M155" t="n">
+        <v>0.4222166713251962</v>
       </c>
     </row>
   </sheetData>

--- a/data_operasi_reaktor/Result_data_v.xlsx
+++ b/data_operasi_reaktor/Result_data_v.xlsx
@@ -5190,21 +5190,45 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>25-09-2024</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr"/>
-      <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
-      <c r="H111" t="inlineStr"/>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
+          <t>24-09-2024</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0.5596272154733456</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.104134484462225</v>
+      </c>
+      <c r="D111" t="n">
+        <v>-0.5823898421766817</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.001292827493683621</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.5596272154733463</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.1041344844622253</v>
+      </c>
+      <c r="H111" t="n">
+        <v>-0.5823898421766803</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.001292827493683951</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.2720833495608415</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.06995025612737474</v>
+      </c>
+      <c r="L111" t="n">
+        <v>-0.2903051699538535</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0.004781281995286345</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -5424,32 +5448,44 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>11-11-2024</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr"/>
-      <c r="C117" t="inlineStr"/>
+          <t>12-11-2024</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>1.305741373838125</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.5989172596791161</v>
+      </c>
       <c r="D117" t="n">
-        <v>-1.758958710225401</v>
+        <v>-1.370841117638774</v>
       </c>
       <c r="E117" t="n">
-        <v>0.2947649703387581</v>
-      </c>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
+        <v>0.6283717125908611</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1.305741373838124</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.5989172596791069</v>
+      </c>
       <c r="H117" t="n">
-        <v>-1.758958710225396</v>
+        <v>-1.370841117638777</v>
       </c>
       <c r="I117" t="n">
-        <v>0.2947649703387897</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+        <v>0.6283717125908679</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1.15898699876049</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.6753237240724687</v>
+      </c>
       <c r="L117" t="n">
-        <v>-1.727136046954602</v>
+        <v>-1.241745001179167</v>
       </c>
       <c r="M117" t="n">
-        <v>0.3303258882918614</v>
+        <v>0.7104572512175938</v>
       </c>
     </row>
     <row r="118">
